--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-02).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-02).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 결과서" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,14 +121,6 @@
   </si>
   <si>
     <t>단위테스트 결과서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UT-IDX_MNG_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수관리 대시보드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,167 +133,156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지수 사업자용 자수 관리 Dashboard 관리하는 지수의 전반의 내용을 확인 한다. 
+    <t>indexSummary.js, indexSummary.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박중근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주기능점검(업무)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 속한 (지수 분류 코드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 분류 코드에 해당하는 요약 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 화면 구성 요소 배치의 통일서 여부(누락되거나, 필요없이 들어가 있는 항목 체크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 화면구성요소의 타이틀 버튼 버튼 통일성 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 화면구성요소의 글씨체, 글씨크기등의 일관성 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 화면의 철자, 대소문자의 결함 및 통일성 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. refresh 후 화면의 모양이 깨지거나 변한는 경우가 있는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 화면 Load시 커서 focus 위치의 절적성 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 화면에서 Tab키 또는 방향키, 엔터키, 마우스를 눌렀을 경우 Cursor 이동 순서의 정확성 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 아이콘, 버튼이 사용자 메뉴 또는 권한, 상황에 맞게 enable/disable 되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 필수 입력 표시 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 메시지 박스 내용이 상황과 맞게 나오는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 날짜포맷, 숫자 포맷에 맞게 출력 되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1. 지수 분류 코드에 해당하는 요약 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 지수 분류 코드에 해당하는 요약 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-IDX_MNG_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 관리 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDX_MNG_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관리지수는 ETP와 연동된 발표지수와 아직 발표되진 않았으나 플랫폼과 연동 되어 산출중인 연동 지수로 구분한다. 
 1. 주요점검 항목
-  - 대표 지수 그래프 및 정보 확인 
-  - 발표지수, 산출지수, 프로젝트, 조회 요청 확인 
-  - 지수 정보 공개 요청 처리 확인
+  - 리스트 출력 정보 확인
+  - 지수 정보 조회 화면 페이지로 이동 여부 확인
 2. 테스트전 사전 준비 사항(선행 및 데이터)
-  - 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indexSummary.js, indexSummary.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박중근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDX_MNG_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주기능점검(업무)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표지수
-1. 최근지수 
-  - 가장 최근 지수정보가 출력 되었는지 체크 한다. 
-2. 성과가 좋은지수 
-  - 가장 성과가 좋은 지수 정보가 출력 되었는지 확인한다.
-3. ETP 규모 가장큰 지수)
-  - ETP 규모가 가장큰 지수정보가 출력 되었는지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 속한 (지수 분류 코드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수 분류 코드에 해당하는 요약 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부가기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 화면 구성 요소 배치의 통일서 여부(누락되거나, 필요없이 들어가 있는 항목 체크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 화면구성요소의 타이틀 버튼 버튼 통일성 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 화면구성요소의 글씨체, 글씨크기등의 일관성 여부 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 화면의 철자, 대소문자의 결함 및 통일성 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. refresh 후 화면의 모양이 깨지거나 변한는 경우가 있는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 화면 Load시 커서 focus 위치의 절적성 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 화면에서 Tab키 또는 방향키, 엔터키, 마우스를 눌렀을 경우 Cursor 이동 순서의 정확성 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 아이콘, 버튼이 사용자 메뉴 또는 권한, 상황에 맞게 enable/disable 되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 필수 입력 표시 여부 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. 메시지 박스 내용이 상황과 맞게 나오는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. 날짜포맷, 숫자 포맷에 맞게 출력 되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1. 지수 분류 코드에 해당하는 요약 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 지수 분류 코드에 해당하는 요약 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 발표지수, 산출지수, 프로젝트, 조회 요청 건수 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 ID, 사용자 기관코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 발표한 지수 건수를 출력 한다. 
-2. 산출진행중 지수 건수를 출력한다.
-3. 지수등록 건수를 출력한다. 
-4. 조회 요청 건수를 출력한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 요청 처리시 메시지 처리가 정상 출력 되는 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 지수 정보 공개 요청 처리 리스트를 출력한다. 
-2. 요청처리시 허가/ 불허가 처리가 정상적인지 확인 한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 지수 정보 공개 요청 처리 리스트 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.정보 공개 요청 승인 하시겠습니까?
-2. 정보 공개 요청 거절 하시겠습니까?</t>
+  - 지수 사업자로 로그인 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 관리줏 총갯수 확인 
+2. 테이블 모든 항목은 오름차순/내림차순이 가능해야함
+3. 발표/연동 두가지 값을 가진다. 
+  - 발표: 실제 분배되고 있는 지수
+  - 연동: 분배는 되지 않으나, 플랫폼상에서 산출중인 지수 
+4. 세부 정보 보기 권한을 가지 기관수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 아이콘을 클릭하면 지수 정보 조회 페이지로 이동 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수아이디, 마켓아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지수아이디와 마켓아이디에 해당 하는 정보가 출력된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDX_MNG_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 관리 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,9 +563,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -603,6 +581,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -642,12 +623,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,9 +667,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1124,24 +1096,24 @@
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1150,13 +1122,13 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="22"/>
@@ -1165,7 +1137,7 @@
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1174,13 +1146,13 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="23"/>
@@ -1189,7 +1161,7 @@
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1198,7 +1170,7 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -1214,7 +1186,7 @@
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="30" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -1282,25 +1254,25 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" ht="108" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1311,16 +1283,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1329,21 +1301,11 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1351,19 +1313,11 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>61</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1611,7 +1565,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1647,24 +1601,24 @@
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1673,13 +1627,13 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="22"/>
@@ -1688,7 +1642,7 @@
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1697,13 +1651,13 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="23"/>
@@ -1712,7 +1666,7 @@
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1721,7 +1675,7 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -1737,44 +1691,44 @@
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
+        <v>55</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="A9" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="34"/>
+      <c r="A10" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="32"/>
       <c r="C10" s="19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -1785,10 +1739,10 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -1799,10 +1753,10 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -1813,10 +1767,10 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -1827,10 +1781,10 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -1841,10 +1795,10 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -1855,10 +1809,10 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -1869,10 +1823,10 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -1883,10 +1837,10 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -1897,10 +1851,10 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -1911,10 +1865,10 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -1965,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1982,14 +1936,14 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2006,14 +1960,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="25"/>
-      <c r="C3" s="11" t="s">
-        <v>24</v>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -2027,13 +1981,13 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
@@ -2043,7 +1997,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -2056,332 +2010,332 @@
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="45"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -2394,292 +2348,292 @@
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="14"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="14"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="14"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="14"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="13"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="14"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="13"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="14"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="14"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="14"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="14"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="14"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="14"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="14"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="13"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="14"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="13"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="14"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="13"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="14"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="14"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="14"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="14"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="17"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-02).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-02).xlsx
@@ -228,14 +228,6 @@
     <t/>
   </si>
   <si>
-    <t>1. 지수 분류 코드에 해당하는 요약 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 지수 분류 코드에 해당하는 요약 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UT-IDX_MNG_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,7 +249,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 관리줏 총갯수 확인 
+    <t xml:space="preserve">1. 아이콘을 클릭하면 지수 정보 조회 페이지로 이동 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수아이디, 마켓아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지수아이디와 마켓아이디에 해당 하는 정보가 출력된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDX_MNG_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 관리 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 관리지수 총갯수 확인 
 2. 테이블 모든 항목은 오름차순/내림차순이 가능해야함
 3. 발표/연동 두가지 값을 가진다. 
   - 발표: 실제 분배되고 있는 지수
@@ -266,23 +278,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 아이콘을 클릭하면 지수 정보 조회 페이지로 이동 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수아이디, 마켓아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">지수아이디와 마켓아이디에 해당 하는 정보가 출력된다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDX_MNG_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수 관리 목록</t>
+    <t>1. 지수 리스트 출력 및 그래프 클릭시 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 상세 화면 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,15 +584,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -601,27 +622,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -718,19 +718,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>184457</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>46613</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -743,8 +743,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324100" y="1714500"/>
-          <a:ext cx="7905750" cy="4966007"/>
+          <a:off x="2343151" y="1571053"/>
+          <a:ext cx="8972550" cy="5181160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -756,33 +756,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>109399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>5118407</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>37060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="5" name="그림 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371725" y="7486650"/>
-          <a:ext cx="7905750" cy="4966007"/>
+          <a:off x="2381250" y="7443649"/>
+          <a:ext cx="9124950" cy="5547411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,7 +1060,7 @@
   <dimension ref="A2:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1075,10 +1075,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1091,110 +1091,110 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21" t="s">
+      <c r="E3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="24" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24" t="s">
+      <c r="E5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1209,40 +1209,40 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="I10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -1262,7 +1262,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>30</v>
@@ -1286,13 +1286,13 @@
         <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1530,6 +1530,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -1540,19 +1553,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1580,10 +1580,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -1596,110 +1596,110 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21" t="s">
+      <c r="E3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="24" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24" t="s">
+      <c r="E5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1727,159 +1727,172 @@
         <v>33</v>
       </c>
       <c r="B10" s="32"/>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
@@ -1896,19 +1909,6 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1956,58 +1956,58 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="20"/>
+      <c r="E3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="20"/>
+      <c r="A6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
@@ -2334,18 +2334,18 @@
       <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="20"/>
+      <c r="A34" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
     </row>
     <row r="35" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>

--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-02).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-02).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\BICNS\코스콤\단위테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etp\etc\doc\단위테스트결과서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>2. 상세 화면 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. summary 가 정상 노출되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수분류코드=FNGUIDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FNGUIDE 에 속한 데이터 중 단축코드 역순으로 4개만 노출된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,44 +596,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -718,44 +730,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104203</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>46613</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2343151" y="1571053"/>
-          <a:ext cx="8972550" cy="5181160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>109399</xdr:rowOff>
@@ -774,7 +748,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -783,6 +757,44 @@
         <a:xfrm>
           <a:off x="2381250" y="7443649"/>
           <a:ext cx="9124950" cy="5547411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>205466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="1533525"/>
+          <a:ext cx="9039225" cy="4958441"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,7 +1072,7 @@
   <dimension ref="A2:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:J7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1075,10 +1087,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1091,110 +1103,110 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="18" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="18" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1209,40 +1221,40 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="24" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1252,7 +1264,7 @@
       <c r="I10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -1301,11 +1313,21 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1530,19 +1552,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -1553,6 +1562,19 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1580,10 +1602,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -1596,110 +1618,110 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="18" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="18" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1727,172 +1749,159 @@
         <v>33</v>
       </c>
       <c r="B10" s="32"/>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
@@ -1909,6 +1918,19 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1920,7 +1942,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1956,58 +1978,58 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
@@ -2334,18 +2356,18 @@
       <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>

--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-02).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-02).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 결과서" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1307,7 +1307,9 @@
         <v>56</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1329,7 +1331,9 @@
         <v>64</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1941,7 +1945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>

--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-02).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-02).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   <si>
     <t>테스트 
 완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,6 +291,10 @@
   </si>
   <si>
     <t>FNGUIDE 에 속한 데이터 중 단축코드 역순으로 4개만 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,9 +551,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -596,6 +593,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -679,6 +679,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,7 +1075,7 @@
   <dimension ref="A2:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1098,7 +1101,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1107,14 +1110,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="25"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="21" t="s">
@@ -1124,8 +1127,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="17">
+        <v>43823</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1133,14 +1136,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="25"/>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="22"/>
@@ -1148,8 +1151,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="17">
+        <v>43826</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1158,13 +1161,13 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="23"/>
@@ -1172,8 +1175,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="25"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="17">
+        <v>43830</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1182,7 +1185,7 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -1198,7 +1201,7 @@
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -1255,304 +1258,322 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="F12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="F13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1591,7 +1612,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1610,14 +1631,14 @@
         <v>22</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1626,14 +1647,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="25"/>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="21" t="s">
@@ -1643,8 +1664,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="17">
+        <v>43823</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1652,14 +1673,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="25"/>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="22"/>
@@ -1667,8 +1688,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="17">
+        <v>43826</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1677,13 +1698,13 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="23"/>
@@ -1691,8 +1712,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="25"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="17">
+        <v>43830</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1701,7 +1722,7 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -1717,7 +1738,7 @@
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -1730,179 +1751,223 @@
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
       <c r="C11" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
       <c r="C13" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="34"/>
       <c r="C15" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="34"/>
       <c r="C17" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
       <c r="C19" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
       <c r="C20" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1961,8 +2026,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>49</v>
+      <c r="A1" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1977,7 +2042,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1987,13 +2052,13 @@
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -2006,14 +2071,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="25"/>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
@@ -2023,7 +2088,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -2361,7 +2426,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -2386,280 +2451,280 @@
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="13"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="13"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="13"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="13"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="13"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
